--- a/shared/Stream-Site-Management.xlsx
+++ b/shared/Stream-Site-Management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
   <si>
     <t>Whirlpool Wireframe</t>
   </si>
@@ -184,13 +184,31 @@
   </si>
   <si>
     <t>AIGDM Shared CSS file#2</t>
+  </si>
+  <si>
+    <t>Careington passthrough CSS</t>
+  </si>
+  <si>
+    <t>https://www.aiginsurance.com/uploads/00002066/careington.css</t>
+  </si>
+  <si>
+    <t>https://www.aiginsurance.com/uploads/00001941/careington-AIGbranded_v1.2.css</t>
+  </si>
+  <si>
+    <t>Browser version detection</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>PCG Complete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,8 +265,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,6 +283,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -289,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -326,6 +357,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -628,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,15 +675,17 @@
     <col min="2" max="2" width="8.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="35.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="16.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="35.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="62.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="34.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
@@ -661,23 +698,29 @@
       <c r="D1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
@@ -687,43 +730,38 @@
       <c r="C2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>43</v>
+      <c r="E2" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>4</v>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="B3" s="2">
-        <v>1958</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1970</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
@@ -733,20 +771,23 @@
       <c r="C4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
@@ -756,20 +797,23 @@
       <c r="C5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
@@ -782,20 +826,23 @@
       <c r="D6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="K6" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
@@ -805,20 +852,23 @@
       <c r="C7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
@@ -828,20 +878,21 @@
       <c r="C8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
@@ -851,20 +902,21 @@
       <c r="C9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="K9" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
@@ -874,20 +926,21 @@
       <c r="C10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="G10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
@@ -897,20 +950,20 @@
       <c r="C11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="K11" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>6</v>
       </c>
@@ -920,20 +973,21 @@
       <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="K12" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>5</v>
       </c>
@@ -943,20 +997,26 @@
       <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="I13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="K13" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>4</v>
       </c>
@@ -969,23 +1029,26 @@
       <c r="D14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="J14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="K14" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>3</v>
       </c>
@@ -995,23 +1058,26 @@
       <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="J15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="K15" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>2</v>
       </c>
@@ -1021,23 +1087,26 @@
       <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="J16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="K16" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>1</v>
       </c>
@@ -1047,23 +1116,24 @@
       <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="J17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="K17" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>0</v>
       </c>
@@ -1073,20 +1143,23 @@
       <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="F18" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="G18" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="I18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="K18" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>12</v>
       </c>
@@ -1096,16 +1169,17 @@
       <c r="C19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="J19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="K19" s="6" t="s">
         <v>37</v>
       </c>
     </row>

--- a/shared/Stream-Site-Management.xlsx
+++ b/shared/Stream-Site-Management.xlsx
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="64">
   <si>
     <t>Whirlpool Wireframe</t>
   </si>
   <si>
-    <t>More Rewads Site</t>
-  </si>
-  <si>
     <t>AIGPCG Equine</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>AIGDM JS file</t>
   </si>
   <si>
-    <t>/uploads/00001941/AIGDM_Shared_v1.2.js</t>
-  </si>
-  <si>
     <t>/uploads/00001941/AIGDM_Shared_v1.4.css</t>
   </si>
   <si>
@@ -102,9 +96,6 @@
     <t>www-201.aigprivateclient.com</t>
   </si>
   <si>
-    <t>/uploads/00001941/AIGDM_Shared_v1.3_wBootstrap.js</t>
-  </si>
-  <si>
     <t>https://ebpcentral.aig.com/js/s_code.js</t>
   </si>
   <si>
@@ -156,9 +147,6 @@
     <t>/uploads/00001941/AIGDM_Shared_v1.3.css</t>
   </si>
   <si>
-    <t>www-179.AIGInsurance.com</t>
-  </si>
-  <si>
     <t>www-178.AIGInsurance.com</t>
   </si>
   <si>
@@ -183,9 +171,6 @@
     <t>/uploads/00002066/2066Journey_v2.js</t>
   </si>
   <si>
-    <t>AIGDM Shared CSS file#2</t>
-  </si>
-  <si>
     <t>Careington passthrough CSS</t>
   </si>
   <si>
@@ -202,13 +187,34 @@
   </si>
   <si>
     <t>PCG Complete</t>
+  </si>
+  <si>
+    <t>/uploads/00001941/AIGDM_Shared_wBootstrap.js</t>
+  </si>
+  <si>
+    <t>www-203.aigprivateclient.com</t>
+  </si>
+  <si>
+    <t>Secondary CSS file loaded</t>
+  </si>
+  <si>
+    <t>Sophie Web Property</t>
+  </si>
+  <si>
+    <t>Sophie Portal</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>shutdown</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,13 +273,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="9" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,12 +309,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -320,7 +340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -357,9 +377,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -666,7 +693,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,450 +714,470 @@
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>55</v>
-      </c>
       <c r="I1" s="9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2">
         <v>1888</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>61</v>
+      <c r="A3" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="B3" s="2">
         <v>1970</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
+      <c r="C3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2">
         <v>1972</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>20</v>
+        <v>47</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2">
         <v>1975</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>46</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2">
         <v>1978</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>45</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>16</v>
+      <c r="A7" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>1980</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="G7" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2">
         <v>1995</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="7" t="s">
-        <v>20</v>
+      <c r="C8" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>2062</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="7" t="s">
-        <v>20</v>
+      <c r="C9" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2">
         <v>2064</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="7" t="s">
-        <v>20</v>
+      <c r="C10" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2">
         <v>2068</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="2">
         <v>2076</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2">
         <v>2079</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>60</v>
+        <v>37</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>35</v>
+        <v>57</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2">
         <v>2080</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="2">
         <v>2081</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>60</v>
+        <v>27</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="K15" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="2">
         <v>2083</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>60</v>
+        <v>25</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="K16" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="B17" s="2">
         <v>2084</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1141,46 +1188,51 @@
         <v>2085</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B19" s="2">
         <v>2087</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="7" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/shared/Stream-Site-Management.xlsx
+++ b/shared/Stream-Site-Management.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="70">
   <si>
     <t>Whirlpool Wireframe</t>
   </si>
@@ -201,20 +201,38 @@
     <t>Sophie Web Property</t>
   </si>
   <si>
-    <t>Sophie Portal</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
     <t>shutdown</t>
+  </si>
+  <si>
+    <t>insurance.morerewards.ca</t>
+  </si>
+  <si>
+    <t>property.insurance.morerewards.ca</t>
+  </si>
+  <si>
+    <t>Sophie Portal/Main site</t>
+  </si>
+  <si>
+    <t>css upgradeable?</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>*Y-tweaks needed</t>
+  </si>
+  <si>
+    <t>*Y - CSS order is fixed in live</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +316,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -340,7 +369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -387,6 +416,28 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -690,29 +741,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="45.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="36.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="35.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="62.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="34.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="15.5703125" style="21" customWidth="1"/>
+    <col min="9" max="9" width="35.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="62.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="34.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -735,19 +787,22 @@
         <v>20</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
@@ -766,14 +821,15 @@
       <c r="G2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="H2" s="20"/>
+      <c r="K2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>56</v>
       </c>
@@ -792,14 +848,17 @@
       <c r="G3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="H3" s="26" t="s">
+        <v>69</v>
+      </c>
       <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="14">
         <v>1972</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -814,18 +873,19 @@
       <c r="G4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="H4" s="23"/>
+      <c r="K4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="25">
         <v>1975</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -840,18 +900,21 @@
       <c r="G5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="H5" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="25">
         <v>1978</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -869,14 +932,17 @@
       <c r="G6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="H6" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="L6" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>15</v>
       </c>
@@ -895,14 +961,17 @@
       <c r="G7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="H7" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
@@ -910,7 +979,7 @@
         <v>1995</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>55</v>
@@ -921,14 +990,17 @@
       <c r="G8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="H8" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
@@ -936,7 +1008,7 @@
         <v>2062</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>40</v>
@@ -947,14 +1019,17 @@
       <c r="G9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="H9" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
@@ -962,7 +1037,7 @@
         <v>2064</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>40</v>
@@ -973,14 +1048,17 @@
       <c r="G10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="H10" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
@@ -991,7 +1069,7 @@
         <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>39</v>
@@ -999,14 +1077,17 @@
       <c r="G11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="H11" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>5</v>
       </c>
@@ -1025,14 +1106,17 @@
       <c r="G12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="H12" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="L12" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>4</v>
       </c>
@@ -1051,21 +1135,24 @@
       <c r="G13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="H13" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="K13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="L13" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="14">
         <v>2080</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1083,21 +1170,22 @@
       <c r="G14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="23"/>
+      <c r="I14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="K14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="L14" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="14">
         <v>2081</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1112,21 +1200,24 @@
       <c r="G15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="K15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="L15" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="14">
         <v>2083</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1141,28 +1232,31 @@
       <c r="G16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="K16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="L16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B17" s="2">
         <v>2084</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>40</v>
+      <c r="C17" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>57</v>
@@ -1170,17 +1264,20 @@
       <c r="G17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="K17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="L17" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>0</v>
       </c>
@@ -1191,7 +1288,7 @@
         <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>50</v>
@@ -1199,28 +1296,31 @@
       <c r="G18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="H18" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="K18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="L18" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B19" s="2">
         <v>2087</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>40</v>
+      <c r="C19" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>57</v>
@@ -1228,10 +1328,13 @@
       <c r="G19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="H19" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="L19" s="6" t="s">
         <v>34</v>
       </c>
     </row>

--- a/shared/Stream-Site-Management.xlsx
+++ b/shared/Stream-Site-Management.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="71">
   <si>
     <t>Whirlpool Wireframe</t>
   </si>
@@ -226,13 +226,16 @@
   </si>
   <si>
     <t>*Y - CSS order is fixed in live</t>
+  </si>
+  <si>
+    <t>Shared CSS Nav?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +330,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -369,7 +379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -438,6 +448,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -741,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,16 +771,17 @@
     <col min="4" max="4" width="28.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="45.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="21" customWidth="1"/>
-    <col min="9" max="9" width="35.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="62.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="34.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="18.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="36.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="21" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="62.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="34.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -784,25 +801,28 @@
         <v>18</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
@@ -818,18 +838,21 @@
       <c r="F2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="K2" s="5" t="s">
+      <c r="I2" s="20"/>
+      <c r="L2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>56</v>
       </c>
@@ -845,20 +868,23 @@
       <c r="F3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="I3" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="25">
         <v>1972</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -870,18 +896,21 @@
       <c r="F4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="K4" s="6" t="s">
+      <c r="I4" s="23"/>
+      <c r="L4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
@@ -897,20 +926,23 @@
       <c r="F5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="I5" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
@@ -929,20 +961,23 @@
       <c r="F6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="I6" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="L6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="M6" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>15</v>
       </c>
@@ -958,20 +993,23 @@
       <c r="F7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="I7" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
@@ -987,20 +1025,23 @@
       <c r="F8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="I8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
@@ -1016,20 +1057,23 @@
       <c r="F9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="I9" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="M9" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
@@ -1045,20 +1089,23 @@
       <c r="F10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="I10" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="M10" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
@@ -1074,20 +1121,23 @@
       <c r="F11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="5" t="s">
+      <c r="I11" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="M11" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>5</v>
       </c>
@@ -1103,20 +1153,23 @@
       <c r="F12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" s="5" t="s">
+      <c r="I12" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>4</v>
       </c>
@@ -1132,27 +1185,30 @@
       <c r="F13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" s="3" t="s">
+      <c r="I13" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="L13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="M13" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="25">
         <v>2080</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1167,25 +1223,25 @@
       <c r="F14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="5" t="s">
+      <c r="I14" s="23"/>
+      <c r="L14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="M14" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="28">
         <v>2081</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1197,27 +1253,30 @@
       <c r="F15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="L15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="M15" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="28">
         <v>2083</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1229,23 +1288,26 @@
       <c r="F16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="L16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="M16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>65</v>
       </c>
@@ -1261,23 +1323,26 @@
       <c r="F17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="L17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="M17" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>0</v>
       </c>
@@ -1293,23 +1358,26 @@
       <c r="F18" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="J18" s="3" t="s">
+      <c r="I18" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="L18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="M18" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>60</v>
       </c>
@@ -1325,16 +1393,19 @@
       <c r="F19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="I19" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="L19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="M19" s="6" t="s">
         <v>34</v>
       </c>
     </row>

--- a/shared/Stream-Site-Management.xlsx
+++ b/shared/Stream-Site-Management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="75">
   <si>
     <t>Whirlpool Wireframe</t>
   </si>
@@ -225,17 +225,29 @@
     <t>*Y-tweaks needed</t>
   </si>
   <si>
-    <t>*Y - CSS order is fixed in live</t>
-  </si>
-  <si>
-    <t>Shared CSS Nav?</t>
+    <t>TBA</t>
+  </si>
+  <si>
+    <t>More Rewads Site</t>
+  </si>
+  <si>
+    <t>http://www.digitalmarketingtest.com/index.php?ProductID=1970</t>
+  </si>
+  <si>
+    <t>Poweb Unique visitor ID</t>
+  </si>
+  <si>
+    <t>portal.insurance.morerewards.ca</t>
+  </si>
+  <si>
+    <t>/uploads/00001941/pcg-redesign-landing.css</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +292,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12.1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="8"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="8"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
@@ -287,58 +376,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <strike/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="9" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,8 +411,14 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -374,12 +441,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -390,9 +543,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -401,59 +551,174 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -757,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,645 +1033,711 @@
     <col min="1" max="1" width="32.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="34.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="36.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="21" customWidth="1"/>
-    <col min="10" max="10" width="35.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="40" style="3" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="35.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="3" customWidth="1"/>
     <col min="11" max="11" width="62.7109375" style="3" customWidth="1"/>
     <col min="12" max="12" width="34.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.42578125" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" s="47" customFormat="1" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="H1" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="I1" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="J1" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="47" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="41">
         <v>1888</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="D2" s="66"/>
+      <c r="E2" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="L2" s="5" t="s">
+      <c r="H2" s="51"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="52" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="17">
         <v>1970</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="17">
         <v>1972</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="L4" s="6" t="s">
+      <c r="H4" s="16"/>
+      <c r="L4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="17">
         <v>1975</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="L5" s="5" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="L5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="17">
         <v>1978</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="L6" s="5" t="s">
+      <c r="E6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="L6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="17">
         <v>1980</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="23" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="L7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="54">
+        <v>1995</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="60"/>
+      <c r="E8" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="54">
+        <v>2062</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="60"/>
+      <c r="E9" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="54">
+        <v>2064</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="60"/>
+      <c r="E10" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="20">
+        <v>2068</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" s="5" t="s">
+      <c r="F11" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M11" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1995</v>
-      </c>
-      <c r="C8" s="18" t="s">
+    <row r="12" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="63">
+        <v>2076</v>
+      </c>
+      <c r="C12" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="23" t="s">
+      <c r="D12" s="28"/>
+      <c r="E12" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="5" t="s">
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M12" s="30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2062</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="23" t="s">
+    <row r="13" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="32">
+        <v>2079</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="5" t="s">
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="39" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2064</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2068</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2076</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2079</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="25">
-        <v>2080</v>
+      <c r="B14" s="17">
+        <v>2091</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="6" t="s">
+      <c r="E14" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="L14" s="5" t="s">
+      <c r="H14" s="16"/>
+      <c r="J14" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="28">
-        <v>2081</v>
+      <c r="B15" s="17">
+        <v>2093</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="5" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="J15" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="28">
-        <v>2083</v>
+      <c r="B16" s="17">
+        <v>2094</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" s="5" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="J16" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B17" s="2">
         <v>2084</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="D17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="41">
+        <v>2085</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="45"/>
+      <c r="E18" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="23" t="s">
+      <c r="F18" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="6" t="s">
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M18" s="46" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="2">
-        <v>2085</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
     <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B19" s="2">
         <v>2087</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="5" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="H19" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="M19" s="5" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2095</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2092</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2096</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D23" s="65"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D24" s="65"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D25" s="65"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/shared/Stream-Site-Management.xlsx
+++ b/shared/Stream-Site-Management.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="103">
   <si>
     <t>Whirlpool Wireframe</t>
   </si>
@@ -261,9 +261,6 @@
     <t>www.serviceplanpurchase.com</t>
   </si>
   <si>
-    <t>More Rewads Portal Site</t>
-  </si>
-  <si>
     <t>/uploads/00001941/sophie_2096.css</t>
   </si>
   <si>
@@ -298,6 +295,36 @@
   </si>
   <si>
     <t>Y - PCG*</t>
+  </si>
+  <si>
+    <t>IsTest and ShowVars upgrade</t>
+  </si>
+  <si>
+    <t>www-208.aigprivateclient.com</t>
+  </si>
+  <si>
+    <t>2100_2107</t>
+  </si>
+  <si>
+    <t>set is test flag:</t>
+  </si>
+  <si>
+    <t>&amp;ShowVars=true</t>
+  </si>
+  <si>
+    <t>&amp;IsTest=true</t>
+  </si>
+  <si>
+    <t>show variables:</t>
+  </si>
+  <si>
+    <t>More Rewards Portal Site</t>
+  </si>
+  <si>
+    <t>?IsTest=true</t>
+  </si>
+  <si>
+    <t>?ShowVars=true</t>
   </si>
 </sst>
 </file>
@@ -350,13 +377,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -391,14 +411,6 @@
     </font>
     <font>
       <strike/>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -508,6 +520,22 @@
     <font>
       <strike/>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -625,9 +653,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -641,9 +669,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -651,7 +676,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -663,210 +688,204 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -875,10 +894,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -887,26 +906,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -927,32 +943,29 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -961,34 +974,31 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -997,19 +1007,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1017,22 +1024,82 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1338,911 +1405,973 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:B20"/>
+      <selection pane="bottomRight" activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="34.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="27" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40" style="3" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="8" customWidth="1"/>
-    <col min="9" max="10" width="35.140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="62.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="41.5703125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="25.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="18.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40" style="3" customWidth="1"/>
+    <col min="8" max="8" width="36.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="7" customWidth="1"/>
+    <col min="10" max="11" width="35.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="62.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="41.5703125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="25.85546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="11" customFormat="1" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:17" s="10" customFormat="1" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="134" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="25">
+    <row r="2" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="127" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="22">
         <v>1888</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="36" t="s">
+      <c r="E2" s="144" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="134" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="H2" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="125" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="118" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="118" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="126" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="58">
+        <v>2105</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="135" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="117"/>
+      <c r="K3" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="62" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="51">
+        <v>1995</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="150" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="136" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="54"/>
+      <c r="K4" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="40">
+        <v>2068</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="153" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="137" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="45"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="66">
+        <v>2101</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="145" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="138" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="73" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="96" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="98"/>
+      <c r="E7" s="146" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="139" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="99" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="100" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="132" t="s">
+      <c r="J7" s="98"/>
+      <c r="K7" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="132" t="s">
+      <c r="L7" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="N2" s="124" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="124" t="s">
+      <c r="M7" s="98"/>
+      <c r="N7" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="104" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="133" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="61">
-        <v>2105</v>
-      </c>
-      <c r="C3" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="63" t="s">
+      <c r="Q7" s="105" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="107">
+        <v>1980</v>
+      </c>
+      <c r="C8" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="109"/>
+      <c r="E8" s="147" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="107" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="122" t="s">
+      <c r="H8" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="123"/>
-      <c r="J3" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="K3" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="60" t="s">
+      <c r="I8" s="112"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="113" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="113" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="60" t="s">
+      <c r="P8" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="65" t="s">
+      <c r="Q8" s="115" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="54">
-        <v>1995</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="57"/>
-      <c r="J4" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="K4" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="N4" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="59" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="43">
-        <v>2068</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="51" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="69">
-        <v>2101</v>
-      </c>
-      <c r="C6" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="75" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="O6" s="68" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" s="76" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="101" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="100">
-        <v>2079</v>
-      </c>
-      <c r="C7" s="101" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="102"/>
-      <c r="E7" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="104" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="105" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="106" t="s">
-        <v>90</v>
-      </c>
-      <c r="I7" s="102"/>
-      <c r="J7" s="107" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="107" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="108" t="s">
-        <v>15</v>
-      </c>
-      <c r="O7" s="109" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" s="110" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="111" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="112">
-        <v>1980</v>
-      </c>
-      <c r="C8" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="115" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="116" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="117" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="119" t="s">
-        <v>74</v>
-      </c>
-      <c r="K8" s="119" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="120" t="s">
-        <v>15</v>
-      </c>
-      <c r="O8" s="120" t="s">
-        <v>27</v>
-      </c>
-      <c r="P8" s="121" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>1970</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="33" t="s">
+      <c r="E9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="H9" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="J9" s="27" t="s">
+      <c r="I9" s="9"/>
+      <c r="K9" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="K9" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="N9" s="35" t="s">
+      <c r="L9" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="35" t="s">
+      <c r="P9" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="Q9" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="20">
         <v>1972</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="37" t="s">
+      <c r="E10" s="144" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="140" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="H10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="J10" s="31" t="s">
+      <c r="I10" s="20"/>
+      <c r="K10" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="K10" s="135" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10" s="28" t="s">
+      <c r="L10" s="128" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="28" t="s">
+      <c r="P10" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="P10" s="21" t="s">
+      <c r="Q10" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>2098</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="33" t="s">
+      <c r="E11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="H11" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="J11" s="136" t="s">
+      <c r="I11" s="9"/>
+      <c r="K11" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="136" t="s">
-        <v>46</v>
-      </c>
-      <c r="N11" s="35" t="s">
+      <c r="L11" s="129" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="35" t="s">
+      <c r="P11" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="21" t="s">
+      <c r="Q11" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+    <row r="12" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="20">
+        <v>2091</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="144" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="140" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="K12" s="128" t="s">
+        <v>92</v>
+      </c>
+      <c r="L12" s="128" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="23">
-        <v>2091</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="23"/>
-      <c r="J12" s="135" t="s">
-        <v>93</v>
-      </c>
-      <c r="K12" s="135" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="N12" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="O12" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="P12" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>2104</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="33" t="s">
+      <c r="E13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="H13" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="J13" s="136" t="s">
-        <v>93</v>
-      </c>
-      <c r="K13" s="136" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N13" s="35" t="s">
+      <c r="I13" s="6"/>
+      <c r="K13" s="129" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13" s="129" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="35" t="s">
+      <c r="P13" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="P13" s="21" t="s">
+      <c r="Q13" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="20">
+        <v>2106</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="144" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="140" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="20"/>
+      <c r="K14" s="128" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="128" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="23">
-        <v>2106</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="37" t="s">
+      <c r="B15" s="13">
+        <v>2062</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="148" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="141" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="H15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="131" t="s">
+        <v>73</v>
+      </c>
+      <c r="L15" s="131" t="s">
+        <v>56</v>
+      </c>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="51">
+        <v>2064</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="150" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="136" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="54"/>
+      <c r="K16" s="132" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" s="132" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="58">
+        <v>2108</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="135" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="129" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="130" t="s">
+        <v>46</v>
+      </c>
+      <c r="M17" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="O17" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="P17" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="62" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="119" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="120">
+        <v>2109</v>
+      </c>
+      <c r="C18" s="151" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="121"/>
+      <c r="E18" s="144" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="123" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="23"/>
-      <c r="J14" s="135" t="s">
-        <v>93</v>
-      </c>
-      <c r="K14" s="135" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="N14" s="28" t="s">
+      <c r="I18" s="122"/>
+      <c r="J18" s="121" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" s="124" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="133" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" s="121"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="O14" s="28" t="s">
+      <c r="P18" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="24" t="s">
+      <c r="Q18" s="21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="14">
-        <v>2062</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="38" t="s">
+    <row r="19" spans="1:17" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="85">
+        <v>2103</v>
+      </c>
+      <c r="C19" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="149" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="142" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="138" t="s">
-        <v>73</v>
-      </c>
-      <c r="K15" s="138" t="s">
+      <c r="H19" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="L19" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="P15" s="21" t="s">
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="92" t="s">
+        <v>15</v>
+      </c>
+      <c r="P19" s="92" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" s="93" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="54">
-        <v>2064</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="55" t="s">
+    <row r="20" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="75">
+        <v>2096</v>
+      </c>
+      <c r="C20" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="152" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="143" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="57"/>
-      <c r="J16" s="139" t="s">
-        <v>73</v>
-      </c>
-      <c r="K16" s="139" t="s">
-        <v>56</v>
-      </c>
-      <c r="N16" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="O16" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="P16" s="59" t="s">
+      <c r="H20" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="80"/>
+      <c r="J20" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="L20" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="O20" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="P20" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" s="83" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="61">
-        <v>2108</v>
-      </c>
-      <c r="C17" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" s="136" t="s">
-        <v>93</v>
-      </c>
-      <c r="K17" s="137" t="s">
-        <v>46</v>
-      </c>
-      <c r="L17" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="N17" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="O17" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="P17" s="65" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="125" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="126">
-        <v>2109</v>
-      </c>
-      <c r="C18" s="127"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="130" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="129"/>
-      <c r="I18" s="128" t="s">
-        <v>89</v>
-      </c>
-      <c r="J18" s="131" t="s">
-        <v>58</v>
-      </c>
-      <c r="K18" s="140" t="s">
-        <v>46</v>
-      </c>
-      <c r="L18" s="128"/>
-      <c r="M18" s="128"/>
-      <c r="N18" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="O18" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="P18" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="98" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="88">
-        <v>2103</v>
-      </c>
-      <c r="C19" s="89" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="91" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="92" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="94" t="s">
-        <v>57</v>
-      </c>
-      <c r="I19" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="95" t="s">
-        <v>52</v>
-      </c>
-      <c r="K19" s="95" t="s">
-        <v>56</v>
-      </c>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="96" t="s">
-        <v>15</v>
-      </c>
-      <c r="O19" s="96" t="s">
-        <v>27</v>
-      </c>
-      <c r="P19" s="97" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="78">
-        <v>2096</v>
-      </c>
-      <c r="C20" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="78" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="83"/>
-      <c r="I20" s="84" t="s">
-        <v>82</v>
-      </c>
-      <c r="J20" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="K20" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="N20" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="O20" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="P20" s="86" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="23"/>
-      <c r="H22" s="23"/>
-    </row>
-    <row r="24" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="23"/>
-      <c r="H24" s="23"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D25" s="20"/>
-    </row>
-    <row r="26" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="23"/>
-      <c r="H26" s="23"/>
-    </row>
-    <row r="28" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="23"/>
-      <c r="H28" s="23"/>
-    </row>
-    <row r="30" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="23"/>
-      <c r="H30" s="23"/>
-    </row>
-    <row r="32" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="23"/>
-      <c r="H32" s="23"/>
-    </row>
-    <row r="34" spans="2:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="23"/>
-      <c r="H34" s="23"/>
-    </row>
-    <row r="36" spans="2:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="23"/>
-      <c r="H36" s="23"/>
-    </row>
-    <row r="38" spans="2:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="23"/>
-      <c r="H38" s="23"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H42" s="40" t="s">
+    <row r="22" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="20"/>
+      <c r="I22" s="20"/>
+    </row>
+    <row r="24" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="20"/>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="26" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="20"/>
+      <c r="I26" s="20"/>
+    </row>
+    <row r="28" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="20"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I32" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="I42" s="41"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H43" s="32" t="s">
+      <c r="J32" s="38"/>
+    </row>
+    <row r="33" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I33" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H44" s="32" t="s">
+    <row r="34" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I34" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H45" s="32" t="s">
+    <row r="35" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I35" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H46" s="32" t="s">
+    <row r="36" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I36" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="J36" s="3" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I39" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I40" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
